--- a/for_r/kyiv_school_coord.xlsx
+++ b/for_r/kyiv_school_coord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\visikom_api\for_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B20702-FE6A-4F73-B962-FFE6435761AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3060B28-4280-4523-B15D-E0BD7688FD71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="977">
   <si>
     <t>school_id</t>
   </si>
@@ -2962,9 +2962,6 @@
   </si>
   <si>
     <t>Чехівський провулок, 4А</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2983,6 +2980,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3331,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H487"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F324" sqref="F324"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3344,6 +3343,7 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -10706,7 +10706,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>800163</v>
       </c>
@@ -10728,11 +10728,8 @@
       <c r="G321">
         <v>243</v>
       </c>
-      <c r="H321" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>800279</v>
       </c>
@@ -10755,7 +10752,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>800256</v>
       </c>
@@ -10778,7 +10775,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>800082</v>
       </c>
@@ -10801,7 +10798,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>800444</v>
       </c>
@@ -10824,7 +10821,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>800140</v>
       </c>
@@ -10847,7 +10844,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>800137</v>
       </c>
@@ -10870,7 +10867,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>800116</v>
       </c>
@@ -10893,7 +10890,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>800012</v>
       </c>
@@ -10916,7 +10913,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>800452</v>
       </c>
@@ -10939,7 +10936,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>800448</v>
       </c>
@@ -10962,7 +10959,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>800294</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>800319</v>
       </c>
@@ -11008,7 +11005,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>800375</v>
       </c>
@@ -11031,7 +11028,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>800372</v>
       </c>
@@ -11054,7 +11051,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>800043</v>
       </c>
